--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Ptprb</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H2">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I2">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J2">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>205.908713718314</v>
+        <v>206.9163895</v>
       </c>
       <c r="N2">
-        <v>205.908713718314</v>
+        <v>413.832779</v>
       </c>
       <c r="O2">
-        <v>0.6621047065336257</v>
+        <v>0.6580425222569705</v>
       </c>
       <c r="P2">
-        <v>0.6621047065336257</v>
+        <v>0.5622336856457812</v>
       </c>
       <c r="Q2">
-        <v>2339.102251252247</v>
+        <v>2457.886335552228</v>
       </c>
       <c r="R2">
-        <v>2339.102251252247</v>
+        <v>9831.54534220891</v>
       </c>
       <c r="S2">
-        <v>0.04955837789907652</v>
+        <v>0.0467452151001744</v>
       </c>
       <c r="T2">
-        <v>0.04955837789907652</v>
+        <v>0.03062279135296938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H3">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I3">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J3">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0494237024186233</v>
+        <v>0.06458233333333334</v>
       </c>
       <c r="N3">
-        <v>0.0494237024186233</v>
+        <v>0.193747</v>
       </c>
       <c r="O3">
-        <v>0.0001589231722871829</v>
+        <v>0.0002053869276503449</v>
       </c>
       <c r="P3">
-        <v>0.0001589231722871829</v>
+        <v>0.00026322489522468</v>
       </c>
       <c r="Q3">
-        <v>0.5614482821294051</v>
+        <v>0.7671506109383335</v>
       </c>
       <c r="R3">
-        <v>0.5614482821294051</v>
+        <v>4.60290366563</v>
       </c>
       <c r="S3">
-        <v>1.189536118896062E-05</v>
+        <v>1.459002387695263E-05</v>
       </c>
       <c r="T3">
-        <v>1.189536118896062E-05</v>
+        <v>1.433688740316957E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H4">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I4">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J4">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0324283900718098</v>
+        <v>0.05397833333333333</v>
       </c>
       <c r="N4">
-        <v>0.0324283900718098</v>
+        <v>0.161935</v>
       </c>
       <c r="O4">
-        <v>0.0001042743131367728</v>
+        <v>0.0001716637270722055</v>
       </c>
       <c r="P4">
-        <v>0.0001042743131367728</v>
+        <v>0.000220005075733862</v>
       </c>
       <c r="Q4">
-        <v>0.3683832454279944</v>
+        <v>0.6411894593583333</v>
       </c>
       <c r="R4">
-        <v>0.3683832454279944</v>
+        <v>3.84713675615</v>
       </c>
       <c r="S4">
-        <v>7.804907236883351E-06</v>
+        <v>1.219443664425423E-05</v>
       </c>
       <c r="T4">
-        <v>7.804907236883351E-06</v>
+        <v>1.198286353663419E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H5">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I5">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J5">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.098024059278964</v>
+        <v>0.1071633333333333</v>
       </c>
       <c r="N5">
-        <v>0.098024059278964</v>
+        <v>0.32149</v>
       </c>
       <c r="O5">
-        <v>0.0003151988559887771</v>
+        <v>0.00034080446856111</v>
       </c>
       <c r="P5">
-        <v>0.0003151988559887771</v>
+        <v>0.0004367766807526433</v>
       </c>
       <c r="Q5">
-        <v>1.113543441633937</v>
+        <v>1.272955193683333</v>
       </c>
       <c r="R5">
-        <v>1.113543441633937</v>
+        <v>7.637731162100001</v>
       </c>
       <c r="S5">
-        <v>2.359255849460586E-05</v>
+        <v>2.420964854269486E-05</v>
       </c>
       <c r="T5">
-        <v>2.359255849460586E-05</v>
+        <v>2.378961187138375E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H6">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I6">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J6">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>104.576421796745</v>
+        <v>106.9409206666667</v>
       </c>
       <c r="N6">
-        <v>104.576421796745</v>
+        <v>320.822762</v>
       </c>
       <c r="O6">
-        <v>0.336268144333088</v>
+        <v>0.3400971442524417</v>
       </c>
       <c r="P6">
-        <v>0.336268144333088</v>
+        <v>0.4358701704446648</v>
       </c>
       <c r="Q6">
-        <v>1187.977619962735</v>
+        <v>1270.313232572497</v>
       </c>
       <c r="R6">
-        <v>1187.977619962735</v>
+        <v>7621.87939543498</v>
       </c>
       <c r="S6">
-        <v>0.02516958965527914</v>
+        <v>0.02415940250868344</v>
       </c>
       <c r="T6">
-        <v>0.02516958965527914</v>
+        <v>0.02374023760454547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H7">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I7">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J7">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.326152852037201</v>
+        <v>0.3592435</v>
       </c>
       <c r="N7">
-        <v>0.326152852037201</v>
+        <v>0.7184870000000001</v>
       </c>
       <c r="O7">
-        <v>0.00104875279187366</v>
+        <v>0.001142478367304113</v>
       </c>
       <c r="P7">
-        <v>0.00104875279187366</v>
+        <v>0.0009761372578429328</v>
       </c>
       <c r="Q7">
-        <v>3.705063553047213</v>
+        <v>4.267326005057501</v>
       </c>
       <c r="R7">
-        <v>3.705063553047213</v>
+        <v>17.06930402023</v>
       </c>
       <c r="S7">
-        <v>7.849889401102877E-05</v>
+        <v>8.115797265464805E-05</v>
       </c>
       <c r="T7">
-        <v>7.849889401102877E-05</v>
+        <v>5.316658951953372E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H8">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I8">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J8">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>205.908713718314</v>
+        <v>206.9163895</v>
       </c>
       <c r="N8">
-        <v>205.908713718314</v>
+        <v>413.832779</v>
       </c>
       <c r="O8">
-        <v>0.6621047065336257</v>
+        <v>0.6580425222569705</v>
       </c>
       <c r="P8">
-        <v>0.6621047065336257</v>
+        <v>0.5622336856457812</v>
       </c>
       <c r="Q8">
-        <v>17133.93749337993</v>
+        <v>19250.99876197481</v>
       </c>
       <c r="R8">
-        <v>17133.93749337993</v>
+        <v>115505.9925718489</v>
       </c>
       <c r="S8">
-        <v>0.3630154041968425</v>
+        <v>0.3661243666988042</v>
       </c>
       <c r="T8">
-        <v>0.3630154041968425</v>
+        <v>0.3597721199901067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H9">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I9">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J9">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.0494237024186233</v>
+        <v>0.06458233333333334</v>
       </c>
       <c r="N9">
-        <v>0.0494237024186233</v>
+        <v>0.193747</v>
       </c>
       <c r="O9">
-        <v>0.0001589231722871829</v>
+        <v>0.0002053869276503449</v>
       </c>
       <c r="P9">
-        <v>0.0001589231722871829</v>
+        <v>0.00026322489522468</v>
       </c>
       <c r="Q9">
-        <v>4.11261190767559</v>
+        <v>6.008583573537778</v>
       </c>
       <c r="R9">
-        <v>4.11261190767559</v>
+        <v>54.07725216183999</v>
       </c>
       <c r="S9">
-        <v>8.713358937759823E-05</v>
+        <v>0.0001142740115886168</v>
       </c>
       <c r="T9">
-        <v>8.713358937759823E-05</v>
+        <v>0.0001684370414063387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H10">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I10">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J10">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.0324283900718098</v>
+        <v>0.05397833333333333</v>
       </c>
       <c r="N10">
-        <v>0.0324283900718098</v>
+        <v>0.161935</v>
       </c>
       <c r="O10">
-        <v>0.0001042743131367728</v>
+        <v>0.0001716637270722055</v>
       </c>
       <c r="P10">
-        <v>0.0001042743131367728</v>
+        <v>0.000220005075733862</v>
       </c>
       <c r="Q10">
-        <v>2.698409399329432</v>
+        <v>5.02201314591111</v>
       </c>
       <c r="R10">
-        <v>2.698409399329432</v>
+        <v>45.19811831319999</v>
       </c>
       <c r="S10">
-        <v>5.717099056563084E-05</v>
+        <v>9.551096051346679E-05</v>
       </c>
       <c r="T10">
-        <v>5.717099056563084E-05</v>
+        <v>0.0001407807723481419</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H11">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I11">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J11">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.098024059278964</v>
+        <v>0.1071633333333333</v>
       </c>
       <c r="N11">
-        <v>0.098024059278964</v>
+        <v>0.32149</v>
       </c>
       <c r="O11">
-        <v>0.0003151988559887771</v>
+        <v>0.00034080446856111</v>
       </c>
       <c r="P11">
-        <v>0.0003151988559887771</v>
+        <v>0.0004367766807526433</v>
       </c>
       <c r="Q11">
-        <v>8.156712138131123</v>
+        <v>9.970216483644444</v>
       </c>
       <c r="R11">
-        <v>8.156712138131123</v>
+        <v>89.73194835279999</v>
       </c>
       <c r="S11">
-        <v>0.0001728156271659689</v>
+        <v>0.0001896181720781452</v>
       </c>
       <c r="T11">
-        <v>0.0001728156271659689</v>
+        <v>0.0002794924537759233</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H12">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I12">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J12">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>104.576421796745</v>
+        <v>106.9409206666667</v>
       </c>
       <c r="N12">
-        <v>104.576421796745</v>
+        <v>320.822762</v>
       </c>
       <c r="O12">
-        <v>0.336268144333088</v>
+        <v>0.3400971442524417</v>
       </c>
       <c r="P12">
-        <v>0.336268144333088</v>
+        <v>0.4358701704446648</v>
       </c>
       <c r="Q12">
-        <v>8701.942924076438</v>
+        <v>9949.523748859181</v>
       </c>
       <c r="R12">
-        <v>8701.942924076438</v>
+        <v>89545.71373973263</v>
       </c>
       <c r="S12">
-        <v>0.184367389521643</v>
+        <v>0.1892246281112999</v>
       </c>
       <c r="T12">
-        <v>0.184367389521643</v>
+        <v>0.2789123797895706</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H13">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I13">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J13">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.326152852037201</v>
+        <v>0.3592435</v>
       </c>
       <c r="N13">
-        <v>0.326152852037201</v>
+        <v>0.7184870000000001</v>
       </c>
       <c r="O13">
-        <v>0.00104875279187366</v>
+        <v>0.001142478367304113</v>
       </c>
       <c r="P13">
-        <v>0.00104875279187366</v>
+        <v>0.0009761372578429328</v>
       </c>
       <c r="Q13">
-        <v>27.13961191432551</v>
+        <v>33.42314347577334</v>
       </c>
       <c r="R13">
-        <v>27.13961191432551</v>
+        <v>200.53886085464</v>
       </c>
       <c r="S13">
-        <v>0.0005750048517820782</v>
+        <v>0.00063565674640849</v>
       </c>
       <c r="T13">
-        <v>0.0005750048517820782</v>
+        <v>0.0006246281210491831</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H14">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I14">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J14">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>205.908713718314</v>
+        <v>206.9163895</v>
       </c>
       <c r="N14">
-        <v>205.908713718314</v>
+        <v>413.832779</v>
       </c>
       <c r="O14">
-        <v>0.6621047065336257</v>
+        <v>0.6580425222569705</v>
       </c>
       <c r="P14">
-        <v>0.6621047065336257</v>
+        <v>0.5622336856457812</v>
       </c>
       <c r="Q14">
-        <v>1459.95912307249</v>
+        <v>4.879847157838167</v>
       </c>
       <c r="R14">
-        <v>1459.95912307249</v>
+        <v>29.279082947029</v>
       </c>
       <c r="S14">
-        <v>0.03093204065777641</v>
+        <v>9.280718223199251E-05</v>
       </c>
       <c r="T14">
-        <v>0.03093204065777641</v>
+        <v>9.119698042217513E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H15">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I15">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J15">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.0494237024186233</v>
+        <v>0.06458233333333334</v>
       </c>
       <c r="N15">
-        <v>0.0494237024186233</v>
+        <v>0.193747</v>
       </c>
       <c r="O15">
-        <v>0.0001589231722871829</v>
+        <v>0.0002053869276503449</v>
       </c>
       <c r="P15">
-        <v>0.0001589231722871829</v>
+        <v>0.00026322489522468</v>
       </c>
       <c r="Q15">
-        <v>0.350429974230232</v>
+        <v>0.001523088221888889</v>
       </c>
       <c r="R15">
-        <v>0.350429974230232</v>
+        <v>0.013707793997</v>
       </c>
       <c r="S15">
-        <v>7.424532673066402E-06</v>
+        <v>2.896679375238157E-08</v>
       </c>
       <c r="T15">
-        <v>7.424532673066402E-06</v>
+        <v>4.269633113295543E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H16">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I16">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J16">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0324283900718098</v>
+        <v>0.05397833333333333</v>
       </c>
       <c r="N16">
-        <v>0.0324283900718098</v>
+        <v>0.161935</v>
       </c>
       <c r="O16">
-        <v>0.0001042743131367728</v>
+        <v>0.0001716637270722055</v>
       </c>
       <c r="P16">
-        <v>0.0001042743131367728</v>
+        <v>0.000220005075733862</v>
       </c>
       <c r="Q16">
-        <v>0.2299277338824015</v>
+        <v>0.001273007020555556</v>
       </c>
       <c r="R16">
-        <v>0.2299277338824015</v>
+        <v>0.011457063185</v>
       </c>
       <c r="S16">
-        <v>4.871461056959815E-06</v>
+        <v>2.421063421003633E-08</v>
       </c>
       <c r="T16">
-        <v>4.871461056959815E-06</v>
+        <v>3.56858706561399E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H17">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I17">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J17">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.098024059278964</v>
+        <v>0.1071633333333333</v>
       </c>
       <c r="N17">
-        <v>0.098024059278964</v>
+        <v>0.32149</v>
       </c>
       <c r="O17">
-        <v>0.0003151988559887771</v>
+        <v>0.00034080446856111</v>
       </c>
       <c r="P17">
-        <v>0.0003151988559887771</v>
+        <v>0.0004367766807526433</v>
       </c>
       <c r="Q17">
-        <v>0.6950221631742117</v>
+        <v>0.002527304332222223</v>
       </c>
       <c r="R17">
-        <v>0.6950221631742117</v>
+        <v>0.02274573899</v>
       </c>
       <c r="S17">
-        <v>1.472538064224486E-05</v>
+        <v>4.806543855364547E-08</v>
       </c>
       <c r="T17">
-        <v>1.472538064224486E-05</v>
+        <v>7.084725696879869E-08</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H18">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I18">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J18">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>104.576421796745</v>
+        <v>106.9409206666667</v>
       </c>
       <c r="N18">
-        <v>104.576421796745</v>
+        <v>320.822762</v>
       </c>
       <c r="O18">
-        <v>0.336268144333088</v>
+        <v>0.3400971442524417</v>
       </c>
       <c r="P18">
-        <v>0.336268144333088</v>
+        <v>0.4358701704446648</v>
       </c>
       <c r="Q18">
-        <v>741.4805245653632</v>
+        <v>2.522059026029111</v>
       </c>
       <c r="R18">
-        <v>741.4805245653632</v>
+        <v>22.698531234262</v>
       </c>
       <c r="S18">
-        <v>0.01570969034019071</v>
+        <v>4.796568090305087E-05</v>
       </c>
       <c r="T18">
-        <v>0.01570969034019071</v>
+        <v>7.07002166812459E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H19">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I19">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J19">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.326152852037201</v>
+        <v>0.3592435</v>
       </c>
       <c r="N19">
-        <v>0.326152852037201</v>
+        <v>0.7184870000000001</v>
       </c>
       <c r="O19">
-        <v>0.00104875279187366</v>
+        <v>0.001142478367304113</v>
       </c>
       <c r="P19">
-        <v>0.00104875279187366</v>
+        <v>0.0009761372578429328</v>
       </c>
       <c r="Q19">
-        <v>2.312528805843693</v>
+        <v>0.008472278956166668</v>
       </c>
       <c r="R19">
-        <v>2.312528805843693</v>
+        <v>0.05083367373700001</v>
       </c>
       <c r="S19">
-        <v>4.899536837312163E-05</v>
+        <v>1.611297058233215E-07</v>
       </c>
       <c r="T19">
-        <v>4.899536837312163E-05</v>
+        <v>1.583341102918949E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H20">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I20">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J20">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>205.908713718314</v>
+        <v>206.9163895</v>
       </c>
       <c r="N20">
-        <v>205.908713718314</v>
+        <v>413.832779</v>
       </c>
       <c r="O20">
-        <v>0.6621047065336257</v>
+        <v>0.6580425222569705</v>
       </c>
       <c r="P20">
-        <v>0.6621047065336257</v>
+        <v>0.5622336856457812</v>
       </c>
       <c r="Q20">
-        <v>10317.63271615053</v>
+        <v>16.46219897649017</v>
       </c>
       <c r="R20">
-        <v>10317.63271615053</v>
+        <v>98.773193858941</v>
       </c>
       <c r="S20">
-        <v>0.2185988837799303</v>
+        <v>0.0003130856870991185</v>
       </c>
       <c r="T20">
-        <v>0.2185988837799303</v>
+        <v>0.0003076536598802043</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H21">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I21">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J21">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.0494237024186233</v>
+        <v>0.06458233333333334</v>
       </c>
       <c r="N21">
-        <v>0.0494237024186233</v>
+        <v>0.193747</v>
       </c>
       <c r="O21">
-        <v>0.0001589231722871829</v>
+        <v>0.0002053869276503449</v>
       </c>
       <c r="P21">
-        <v>0.0001589231722871829</v>
+        <v>0.00026322489522468</v>
       </c>
       <c r="Q21">
-        <v>2.476513013068864</v>
+        <v>0.005138148912555556</v>
       </c>
       <c r="R21">
-        <v>2.476513013068864</v>
+        <v>0.046243340213</v>
       </c>
       <c r="S21">
-        <v>5.246968904755761E-05</v>
+        <v>9.771968404721741E-08</v>
       </c>
       <c r="T21">
-        <v>5.246968904755761E-05</v>
+        <v>1.440363757188261E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H22">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I22">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J22">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.0324283900718098</v>
+        <v>0.05397833333333333</v>
       </c>
       <c r="N22">
-        <v>0.0324283900718098</v>
+        <v>0.161935</v>
       </c>
       <c r="O22">
-        <v>0.0001042743131367728</v>
+        <v>0.0001716637270722055</v>
       </c>
       <c r="P22">
-        <v>0.0001042743131367728</v>
+        <v>0.000220005075733862</v>
       </c>
       <c r="Q22">
-        <v>1.624915295205582</v>
+        <v>0.004294498207222222</v>
       </c>
       <c r="R22">
-        <v>1.624915295205582</v>
+        <v>0.038650483865</v>
       </c>
       <c r="S22">
-        <v>3.442695427729877E-05</v>
+        <v>8.167474611832002E-08</v>
       </c>
       <c r="T22">
-        <v>3.442695427729877E-05</v>
+        <v>1.203865376084693E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H23">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I23">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J23">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.098024059278964</v>
+        <v>0.1071633333333333</v>
       </c>
       <c r="N23">
-        <v>0.098024059278964</v>
+        <v>0.32149</v>
       </c>
       <c r="O23">
-        <v>0.0003151988559887771</v>
+        <v>0.00034080446856111</v>
       </c>
       <c r="P23">
-        <v>0.0003151988559887771</v>
+        <v>0.0004367766807526433</v>
       </c>
       <c r="Q23">
-        <v>4.91176999128893</v>
+        <v>0.008525879078888889</v>
       </c>
       <c r="R23">
-        <v>4.91176999128893</v>
+        <v>0.07673291171</v>
       </c>
       <c r="S23">
-        <v>0.0001040652896859576</v>
+        <v>1.621490976600408E-07</v>
       </c>
       <c r="T23">
-        <v>0.0001040652896859576</v>
+        <v>2.390037235665348E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H24">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I24">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J24">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>104.576421796745</v>
+        <v>106.9409206666667</v>
       </c>
       <c r="N24">
-        <v>104.576421796745</v>
+        <v>320.822762</v>
       </c>
       <c r="O24">
-        <v>0.336268144333088</v>
+        <v>0.3400971442524417</v>
       </c>
       <c r="P24">
-        <v>0.336268144333088</v>
+        <v>0.4358701704446648</v>
       </c>
       <c r="Q24">
-        <v>5240.094464113427</v>
+        <v>8.508184001266445</v>
       </c>
       <c r="R24">
-        <v>5240.094464113427</v>
+        <v>76.573656011398</v>
       </c>
       <c r="S24">
-        <v>0.1110214748159751</v>
+        <v>0.0001618125645186539</v>
       </c>
       <c r="T24">
-        <v>0.1110214748159751</v>
+        <v>0.0002385076821142187</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.238679</v>
+      </c>
+      <c r="I25">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J25">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3592435</v>
+      </c>
+      <c r="N25">
+        <v>0.7184870000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.001142478367304113</v>
+      </c>
+      <c r="P25">
+        <v>0.0009761372578429328</v>
+      </c>
+      <c r="Q25">
+        <v>0.02858129311216667</v>
+      </c>
+      <c r="R25">
+        <v>0.171487758673</v>
+      </c>
+      <c r="S25">
+        <v>5.435722047208454E-07</v>
+      </c>
+      <c r="T25">
+        <v>5.341412433797285E-07</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.606016</v>
+      </c>
+      <c r="H26">
+        <v>25.818048</v>
+      </c>
+      <c r="I26">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J26">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>206.9163895</v>
+      </c>
+      <c r="N26">
+        <v>413.832779</v>
+      </c>
+      <c r="O26">
+        <v>0.6580425222569705</v>
+      </c>
+      <c r="P26">
+        <v>0.5622336856457812</v>
+      </c>
+      <c r="Q26">
+        <v>1780.725758699232</v>
+      </c>
+      <c r="R26">
+        <v>10684.35455219539</v>
+      </c>
+      <c r="S26">
+        <v>0.03386666316533094</v>
+      </c>
+      <c r="T26">
+        <v>0.03327907758186849</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.606016</v>
+      </c>
+      <c r="H27">
+        <v>25.818048</v>
+      </c>
+      <c r="I27">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J27">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.06458233333333334</v>
+      </c>
+      <c r="N27">
+        <v>0.193747</v>
+      </c>
+      <c r="O27">
+        <v>0.0002053869276503449</v>
+      </c>
+      <c r="P27">
+        <v>0.00026322489522468</v>
+      </c>
+      <c r="Q27">
+        <v>0.5557965939840001</v>
+      </c>
+      <c r="R27">
+        <v>5.002169345856</v>
+      </c>
+      <c r="S27">
+        <v>1.057039577539664E-05</v>
+      </c>
+      <c r="T27">
+        <v>1.558049959173068E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.606016</v>
+      </c>
+      <c r="H28">
+        <v>25.818048</v>
+      </c>
+      <c r="I28">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J28">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.05397833333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.161935</v>
+      </c>
+      <c r="O28">
+        <v>0.0001716637270722055</v>
+      </c>
+      <c r="P28">
+        <v>0.000220005075733862</v>
+      </c>
+      <c r="Q28">
+        <v>0.46453840032</v>
+      </c>
+      <c r="R28">
+        <v>4.18084560288</v>
+      </c>
+      <c r="S28">
+        <v>8.834805389961412E-06</v>
+      </c>
+      <c r="T28">
+        <v>1.302228267476094E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.606016</v>
+      </c>
+      <c r="H29">
+        <v>25.818048</v>
+      </c>
+      <c r="I29">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J29">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.1071633333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.32149</v>
+      </c>
+      <c r="O29">
+        <v>0.00034080446856111</v>
+      </c>
+      <c r="P29">
+        <v>0.0004367766807526433</v>
+      </c>
+      <c r="Q29">
+        <v>0.92224936128</v>
+      </c>
+      <c r="R29">
+        <v>8.300244251520001</v>
+      </c>
+      <c r="S29">
+        <v>1.753976339159968E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.585317353943801E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.606016</v>
+      </c>
+      <c r="H30">
+        <v>25.818048</v>
+      </c>
+      <c r="I30">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J30">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>106.9409206666667</v>
+      </c>
+      <c r="N30">
+        <v>320.822762</v>
+      </c>
+      <c r="O30">
+        <v>0.3400971442524417</v>
+      </c>
+      <c r="P30">
+        <v>0.4358701704446648</v>
+      </c>
+      <c r="Q30">
+        <v>920.335274312064</v>
+      </c>
+      <c r="R30">
+        <v>8283.017468808577</v>
+      </c>
+      <c r="S30">
+        <v>0.01750336040349466</v>
+      </c>
+      <c r="T30">
+        <v>0.02579951644339737</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.606016</v>
+      </c>
+      <c r="H31">
+        <v>25.818048</v>
+      </c>
+      <c r="I31">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J31">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.3592435</v>
+      </c>
+      <c r="N31">
+        <v>0.7184870000000001</v>
+      </c>
+      <c r="O31">
+        <v>0.001142478367304113</v>
+      </c>
+      <c r="P31">
+        <v>0.0009761372578429328</v>
+      </c>
+      <c r="Q31">
+        <v>3.091655308896001</v>
+      </c>
+      <c r="R31">
+        <v>18.549931853376</v>
+      </c>
+      <c r="S31">
+        <v>5.879852552151054E-05</v>
+      </c>
+      <c r="T31">
+        <v>5.777837287887712E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.592882</v>
+      </c>
+      <c r="H32">
+        <v>107.185764</v>
+      </c>
+      <c r="I32">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J32">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>206.9163895</v>
+      </c>
+      <c r="N32">
+        <v>413.832779</v>
+      </c>
+      <c r="O32">
+        <v>0.6580425222569705</v>
+      </c>
+      <c r="P32">
+        <v>0.5622336856457812</v>
+      </c>
+      <c r="Q32">
+        <v>11089.24564633954</v>
+      </c>
+      <c r="R32">
+        <v>44356.98258535816</v>
+      </c>
+      <c r="S32">
+        <v>0.2109003844233298</v>
+      </c>
+      <c r="T32">
+        <v>0.1381608460805343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.592882</v>
+      </c>
+      <c r="H33">
+        <v>107.185764</v>
+      </c>
+      <c r="I33">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J33">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.06458233333333334</v>
+      </c>
+      <c r="N33">
+        <v>0.193747</v>
+      </c>
+      <c r="O33">
+        <v>0.0002053869276503449</v>
+      </c>
+      <c r="P33">
+        <v>0.00026322489522468</v>
+      </c>
+      <c r="Q33">
+        <v>3.461153369618</v>
+      </c>
+      <c r="R33">
+        <v>20.766920217708</v>
+      </c>
+      <c r="S33">
+        <v>6.58258099315793E-05</v>
+      </c>
+      <c r="T33">
+        <v>6.468373411658934E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.592882</v>
+      </c>
+      <c r="H34">
+        <v>107.185764</v>
+      </c>
+      <c r="I34">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J34">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.05397833333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.161935</v>
+      </c>
+      <c r="O34">
+        <v>0.0001716637270722055</v>
+      </c>
+      <c r="P34">
+        <v>0.000220005075733862</v>
+      </c>
+      <c r="Q34">
+        <v>2.89285444889</v>
+      </c>
+      <c r="R34">
+        <v>17.35712669334</v>
+      </c>
+      <c r="S34">
+        <v>5.50176391441947E-05</v>
+      </c>
+      <c r="T34">
+        <v>5.406308476606034E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="H25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="I25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="J25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.326152852037201</v>
-      </c>
-      <c r="N25">
-        <v>0.326152852037201</v>
-      </c>
-      <c r="O25">
-        <v>0.00104875279187366</v>
-      </c>
-      <c r="P25">
-        <v>0.00104875279187366</v>
-      </c>
-      <c r="Q25">
-        <v>16.34280199160666</v>
-      </c>
-      <c r="R25">
-        <v>16.34280199160666</v>
-      </c>
-      <c r="S25">
-        <v>0.0003462536777074317</v>
-      </c>
-      <c r="T25">
-        <v>0.0003462536777074317</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.592882</v>
+      </c>
+      <c r="H35">
+        <v>107.185764</v>
+      </c>
+      <c r="I35">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J35">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.1071633333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.32149</v>
+      </c>
+      <c r="O35">
+        <v>0.00034080446856111</v>
+      </c>
+      <c r="P35">
+        <v>0.0004367766807526433</v>
+      </c>
+      <c r="Q35">
+        <v>5.743191878059999</v>
+      </c>
+      <c r="R35">
+        <v>34.45915126836</v>
+      </c>
+      <c r="S35">
+        <v>0.0001092266700124566</v>
+      </c>
+      <c r="T35">
+        <v>0.0001073315905853629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.592882</v>
+      </c>
+      <c r="H36">
+        <v>107.185764</v>
+      </c>
+      <c r="I36">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J36">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>106.9409206666667</v>
+      </c>
+      <c r="N36">
+        <v>320.822762</v>
+      </c>
+      <c r="O36">
+        <v>0.3400971442524417</v>
+      </c>
+      <c r="P36">
+        <v>0.4358701704446648</v>
+      </c>
+      <c r="Q36">
+        <v>5731.272142260028</v>
+      </c>
+      <c r="R36">
+        <v>34387.63285356016</v>
+      </c>
+      <c r="S36">
+        <v>0.1089999749835419</v>
+      </c>
+      <c r="T36">
+        <v>0.1071088287083559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.592882</v>
+      </c>
+      <c r="H37">
+        <v>107.185764</v>
+      </c>
+      <c r="I37">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J37">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.3592435</v>
+      </c>
+      <c r="N37">
+        <v>0.7184870000000001</v>
+      </c>
+      <c r="O37">
+        <v>0.001142478367304113</v>
+      </c>
+      <c r="P37">
+        <v>0.0009761372578429328</v>
+      </c>
+      <c r="Q37">
+        <v>19.252894504767</v>
+      </c>
+      <c r="R37">
+        <v>77.01157801906801</v>
+      </c>
+      <c r="S37">
+        <v>0.0003661604208089205</v>
+      </c>
+      <c r="T37">
+        <v>0.0002398716990416674</v>
       </c>
     </row>
   </sheetData>
